--- a/data/trans_orig/P17G-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{963BCED0-AA28-4F1F-8623-EC95CE1F6A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47014794-374A-4DCF-BF84-E105569959F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9226CD78-D023-414A-8155-9A0FD9BFF517}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ABE6FAFC-8DF4-4A45-A096-B322B3C292B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="853">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,8%)</t>
   </si>
@@ -953,7 +953,52 @@
     <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -1085,1483 +1130,1474 @@
     <t>96,7%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>91,63%</t>
   </si>
   <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,33%)</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,33%)</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
 </sst>
 </file>
@@ -2973,7 +3009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09D33C0-D712-415A-B35B-259E5CD9FA99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F481A4FF-4878-4006-8021-0DB24D972593}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5881,7 +5917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F408965-013A-45B2-A0D2-D57DD11C09A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4825FE1-2235-4842-84DA-364E1B09D302}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6001,38 +6037,44 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>304</v>
@@ -6044,43 +6086,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>983</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>983</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,41 +6139,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1039</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1039</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,43 +6188,49 @@
         <v>31</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>953</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>983</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1936</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,43 +6239,49 @@
         <v>40</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D8" s="7">
+        <v>59828</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="I8" s="7">
+        <v>92739</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="N8" s="7">
+        <v>152568</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,43 +6290,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D9" s="7">
+        <v>61764</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="I9" s="7">
+        <v>94762</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="N9" s="7">
+        <v>156526</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,7 +6385,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,7 +6406,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6358,13 +6430,13 @@
         <v>947</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,10 +6469,10 @@
         <v>151</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -6409,13 +6481,13 @@
         <v>3058</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6502,13 @@
         <v>8153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6445,13 +6517,13 @@
         <v>4183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -6460,13 +6532,13 @@
         <v>12336</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6553,13 @@
         <v>94621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -6496,13 +6568,13 @@
         <v>148181</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -6511,13 +6583,13 @@
         <v>242802</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,7 +6663,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6615,13 +6687,13 @@
         <v>916</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,7 +6744,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6759,13 @@
         <v>3817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -6708,7 +6780,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -6717,13 +6789,13 @@
         <v>4803</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6825,13 @@
         <v>3611</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6768,13 +6840,13 @@
         <v>3611</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6861,13 @@
         <v>75536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>128</v>
@@ -6804,13 +6876,13 @@
         <v>134539</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>200</v>
@@ -6822,7 +6894,7 @@
         <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>194</v>
@@ -6899,7 +6971,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6914,7 +6986,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6929,7 +7001,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,19 +7010,19 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>983</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -6959,28 +7031,28 @@
         <v>956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>352</v>
+        <v>58</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>1939</v>
+        <v>956</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,37 +7073,37 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>1944</v>
+        <v>904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>1944</v>
+        <v>904</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,49 +7112,49 @@
         <v>31</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>8532</v>
+        <v>7579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>370</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>2895</v>
+        <v>1912</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="M25" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>11427</v>
+        <v>9492</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,49 +7163,49 @@
         <v>40</v>
       </c>
       <c r="C26" s="7">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7">
-        <v>122160</v>
+        <v>62332</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="H26" s="7">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="I26" s="7">
-        <v>198621</v>
+        <v>105881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="M26" s="7">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="N26" s="7">
-        <v>320781</v>
+        <v>168213</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,10 +7214,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="D27" s="7">
-        <v>131675</v>
+        <v>69911</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>50</v>
@@ -7157,10 +7229,10 @@
         <v>50</v>
       </c>
       <c r="H27" s="7">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="I27" s="7">
-        <v>204416</v>
+        <v>109654</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
@@ -7172,10 +7244,10 @@
         <v>50</v>
       </c>
       <c r="M27" s="7">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="N27" s="7">
-        <v>336091</v>
+        <v>179565</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>50</v>
@@ -7207,7 +7279,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7237,7 +7309,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7324,13 @@
         <v>2337</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7282,13 +7354,13 @@
         <v>2337</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7375,13 @@
         <v>2076</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -7324,7 +7396,7 @@
         <v>188</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -7336,10 +7408,10 @@
         <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,13 +7426,13 @@
         <v>1051</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -7369,13 +7441,13 @@
         <v>2964</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>278</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -7384,13 +7456,13 @@
         <v>4014</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7477,13 @@
         <v>46528</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="H32" s="7">
         <v>83</v>
@@ -7420,13 +7492,13 @@
         <v>85088</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="M32" s="7">
         <v>126</v>
@@ -7435,13 +7507,13 @@
         <v>131616</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,7 +7602,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7581,7 +7653,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -7632,7 +7704,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7683,7 +7755,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7713,10 +7785,10 @@
         <v>78706</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>50</v>
@@ -7728,10 +7800,10 @@
         <v>105119</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>50</v>
@@ -7743,10 +7815,10 @@
         <v>183825</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>50</v>
@@ -7868,13 +7940,13 @@
         <v>1939</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7898,7 +7970,7 @@
         <v>1939</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
@@ -7919,13 +7991,13 @@
         <v>6801</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>404</v>
+        <v>310</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="H42" s="7">
         <v>8</v>
@@ -7934,13 +8006,13 @@
         <v>8111</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M42" s="7">
         <v>15</v>
@@ -7949,13 +8021,13 @@
         <v>14912</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7970,13 +8042,13 @@
         <v>4879</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>118</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -7985,13 +8057,13 @@
         <v>6658</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="M43" s="7">
         <v>10</v>
@@ -8003,10 +8075,10 @@
         <v>281</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,13 +8093,13 @@
         <v>153409</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="H44" s="7">
         <v>188</v>
@@ -8036,13 +8108,13 @@
         <v>206455</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="M44" s="7">
         <v>328</v>
@@ -8051,13 +8123,13 @@
         <v>359865</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,7 +8218,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -8176,13 +8248,13 @@
         <v>987</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -8206,7 +8278,7 @@
         <v>2761</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
@@ -8227,13 +8299,13 @@
         <v>6443</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H48" s="7">
         <v>2</v>
@@ -8248,7 +8320,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="M48" s="7">
         <v>7</v>
@@ -8260,10 +8332,10 @@
         <v>129</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8278,13 +8350,13 @@
         <v>1874</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>404</v>
+        <v>310</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -8293,7 +8365,7 @@
         <v>4120</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>74</v>
@@ -8308,13 +8380,13 @@
         <v>5994</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>204</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8329,13 +8401,13 @@
         <v>146152</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="H50" s="7">
         <v>196</v>
@@ -8344,13 +8416,13 @@
         <v>212170</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="M50" s="7">
         <v>327</v>
@@ -8359,13 +8431,13 @@
         <v>358322</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>371</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,13 +8505,13 @@
         <v>916</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -8454,7 +8526,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -8463,13 +8535,13 @@
         <v>916</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8484,13 +8556,13 @@
         <v>7193</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
@@ -8499,13 +8571,13 @@
         <v>2730</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
       <c r="M53" s="7">
         <v>9</v>
@@ -8514,10 +8586,10 @@
         <v>9923</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>208</v>
@@ -8541,7 +8613,7 @@
         <v>241</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="H54" s="7">
         <v>19</v>
@@ -8550,13 +8622,13 @@
         <v>19192</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>115</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="M54" s="7">
         <v>37</v>
@@ -8565,13 +8637,13 @@
         <v>38328</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>354</v>
+        <v>472</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,7 +8661,7 @@
         <v>37</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>126</v>
@@ -8601,7 +8673,7 @@
         <v>24430</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>256</v>
@@ -8619,7 +8691,7 @@
         <v>286</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>216</v>
@@ -8637,13 +8709,13 @@
         <v>717114</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="H56" s="7">
         <v>1016</v>
@@ -8652,13 +8724,13 @@
         <v>1090170</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="M56" s="7">
         <v>1675</v>
@@ -8673,7 +8745,7 @@
         <v>233</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8753,7 +8825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EDF79C-DC95-478A-AA10-5267A16B3365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527FFC63-4EC5-42F3-9900-E16A5D54EE24}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8770,7 +8842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8883,7 +8955,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8898,7 +8970,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -8907,13 +8979,13 @@
         <v>983</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8928,13 +9000,13 @@
         <v>1984</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -8943,13 +9015,13 @@
         <v>2084</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -8958,13 +9030,13 @@
         <v>4068</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8979,13 +9051,13 @@
         <v>5617</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9000,7 +9072,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -9009,7 +9081,7 @@
         <v>5617</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>89</v>
@@ -9030,13 +9102,13 @@
         <v>7821</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -9045,13 +9117,13 @@
         <v>4376</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -9060,13 +9132,13 @@
         <v>12196</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9081,13 +9153,13 @@
         <v>52341</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -9096,13 +9168,13 @@
         <v>87240</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="M8" s="7">
         <v>133</v>
@@ -9111,13 +9183,13 @@
         <v>139581</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,7 +9263,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -9206,7 +9278,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -9221,7 +9293,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9242,7 +9314,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9257,7 +9329,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -9272,7 +9344,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9293,7 +9365,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -9302,13 +9374,13 @@
         <v>1089</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -9323,7 +9395,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9344,7 +9416,7 @@
         <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -9353,13 +9425,13 @@
         <v>5213</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -9368,13 +9440,13 @@
         <v>9143</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9389,13 +9461,13 @@
         <v>104633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>156</v>
@@ -9404,13 +9476,13 @@
         <v>173388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>255</v>
@@ -9419,10 +9491,10 @@
         <v>278021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>165</v>
@@ -9514,7 +9586,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9550,7 +9622,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -9559,7 +9631,7 @@
         <v>884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
@@ -9574,13 +9646,13 @@
         <v>1807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9595,7 +9667,7 @@
         <v>865</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
@@ -9610,13 +9682,13 @@
         <v>1931</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -9625,13 +9697,13 @@
         <v>2796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>210</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9646,13 +9718,13 @@
         <v>5360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -9661,13 +9733,13 @@
         <v>2977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -9676,10 +9748,10 @@
         <v>8337</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>178</v>
@@ -9697,13 +9769,13 @@
         <v>65384</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -9712,13 +9784,13 @@
         <v>96715</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>165</v>
@@ -9727,13 +9799,13 @@
         <v>162099</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9822,7 +9894,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9837,7 +9909,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9858,7 +9930,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -9867,13 +9939,13 @@
         <v>881</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>541</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -9882,13 +9954,13 @@
         <v>1836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9909,7 +9981,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -9918,13 +9990,13 @@
         <v>3903</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>541</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -9933,7 +10005,7 @@
         <v>5558</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>547</v>
+        <v>369</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>130</v>
@@ -9960,7 +10032,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -9969,13 +10041,13 @@
         <v>9120</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -9984,13 +10056,13 @@
         <v>11075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10005,13 +10077,13 @@
         <v>83004</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -10020,13 +10092,13 @@
         <v>120280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="M26" s="7">
         <v>193</v>
@@ -10035,13 +10107,13 @@
         <v>203286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10115,7 +10187,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10145,7 +10217,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10160,13 +10232,13 @@
         <v>947</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -10190,13 +10262,13 @@
         <v>947</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10217,7 +10289,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -10232,7 +10304,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -10241,13 +10313,13 @@
         <v>1053</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>569</v>
+        <v>304</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10262,13 +10334,13 @@
         <v>3676</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -10283,7 +10355,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -10292,13 +10364,13 @@
         <v>4563</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10313,13 +10385,13 @@
         <v>24554</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="H32" s="7">
         <v>49</v>
@@ -10328,13 +10400,13 @@
         <v>48781</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="M32" s="7">
         <v>75</v>
@@ -10343,13 +10415,13 @@
         <v>73334</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10423,7 +10495,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10453,7 +10525,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10474,7 +10546,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -10504,7 +10576,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10525,7 +10597,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -10540,7 +10612,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -10555,7 +10627,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10570,7 +10642,7 @@
         <v>2038</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
@@ -10585,13 +10657,13 @@
         <v>2878</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -10600,7 +10672,7 @@
         <v>4917</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>238</v>
@@ -10621,13 +10693,13 @@
         <v>103003</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="H38" s="7">
         <v>113</v>
@@ -10636,13 +10708,13 @@
         <v>119186</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="M38" s="7">
         <v>213</v>
@@ -10651,13 +10723,13 @@
         <v>222189</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10761,7 +10833,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10782,7 +10854,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -10806,7 +10878,7 @@
         <v>1055</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
@@ -10833,7 +10905,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -10845,10 +10917,10 @@
         <v>127</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>353</v>
+        <v>609</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -10857,13 +10929,13 @@
         <v>5386</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10884,7 +10956,7 @@
         <v>202</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="H43" s="7">
         <v>6</v>
@@ -10893,10 +10965,10 @@
         <v>6129</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>103</v>
@@ -10908,13 +10980,13 @@
         <v>12719</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10929,13 +11001,13 @@
         <v>140370</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="H44" s="7">
         <v>159</v>
@@ -10944,13 +11016,13 @@
         <v>175892</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="M44" s="7">
         <v>284</v>
@@ -10959,10 +11031,10 @@
         <v>316262</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>266</v>
@@ -11054,7 +11126,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -11069,7 +11141,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11084,13 +11156,13 @@
         <v>5013</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>617</v>
+        <v>367</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -11099,13 +11171,13 @@
         <v>940</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
@@ -11117,10 +11189,10 @@
         <v>95</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11138,7 +11210,7 @@
         <v>174</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>67</v>
@@ -11156,7 +11228,7 @@
         <v>89</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="M48" s="7">
         <v>11</v>
@@ -11165,13 +11237,13 @@
         <v>11852</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>220</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11186,13 +11258,13 @@
         <v>13968</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="H49" s="7">
         <v>12</v>
@@ -11201,13 +11273,13 @@
         <v>14634</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="M49" s="7">
         <v>25</v>
@@ -11216,10 +11288,10 @@
         <v>28602</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>152</v>
@@ -11237,13 +11309,13 @@
         <v>197126</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="H50" s="7">
         <v>224</v>
@@ -11252,13 +11324,13 @@
         <v>250807</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="M50" s="7">
         <v>412</v>
@@ -11267,13 +11339,13 @@
         <v>447933</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11341,13 +11413,13 @@
         <v>983</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -11362,7 +11434,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -11371,13 +11443,13 @@
         <v>983</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -11392,13 +11464,13 @@
         <v>10877</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H53" s="7">
         <v>5</v>
@@ -11407,13 +11479,13 @@
         <v>4789</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="M53" s="7">
         <v>16</v>
@@ -11422,13 +11494,13 @@
         <v>15666</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>210</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11443,13 +11515,13 @@
         <v>16201</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>177</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="H54" s="7">
         <v>17</v>
@@ -11461,10 +11533,10 @@
         <v>33</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>646</v>
+        <v>311</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="M54" s="7">
         <v>31</v>
@@ -11494,10 +11566,10 @@
         <v>45338</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>221</v>
@@ -11509,7 +11581,7 @@
         <v>46214</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>14</v>
@@ -11524,13 +11596,13 @@
         <v>91552</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11545,13 +11617,13 @@
         <v>770415</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>655</v>
+        <v>318</v>
       </c>
       <c r="H56" s="7">
         <v>993</v>
@@ -11560,13 +11632,13 @@
         <v>1072288</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="M56" s="7">
         <v>1730</v>
@@ -11575,13 +11647,13 @@
         <v>1842702</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>363</v>
+        <v>668</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11661,7 +11733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72AE5EB-B7ED-4F75-BD42-16617E2985D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1C7A69-889F-4142-B656-7374E7AAAF1F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11678,7 +11750,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11806,7 +11878,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -11821,7 +11893,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -11848,31 +11920,31 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>71</v>
+        <v>442</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>662</v>
+        <v>498</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>215</v>
+        <v>672</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>462</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11884,46 +11956,46 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>603</v>
+        <v>89</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>1131</v>
+        <v>1184</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>437</v>
+        <v>149</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>540</v>
+        <v>67</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>1789</v>
+        <v>1888</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>675</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>307</v>
+        <v>676</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11935,46 +12007,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>4319</v>
+        <v>5087</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>6788</v>
+        <v>7154</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>207</v>
+        <v>682</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>11107</v>
+        <v>12241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>568</v>
+        <v>684</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>671</v>
+        <v>447</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11986,46 +12058,46 @@
         <v>66</v>
       </c>
       <c r="D8" s="7">
-        <v>54504</v>
+        <v>64404</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>686</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="H8" s="7">
         <v>120</v>
       </c>
       <c r="I8" s="7">
-        <v>62434</v>
+        <v>66360</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="M8" s="7">
         <v>186</v>
       </c>
       <c r="N8" s="7">
-        <v>116939</v>
+        <v>130764</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -12037,7 +12109,7 @@
         <v>72</v>
       </c>
       <c r="D9" s="7">
-        <v>59481</v>
+        <v>70196</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -12052,7 +12124,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="7">
-        <v>70883</v>
+        <v>75257</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -12067,7 +12139,7 @@
         <v>208</v>
       </c>
       <c r="N9" s="7">
-        <v>130364</v>
+        <v>145453</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>50</v>
@@ -12099,37 +12171,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>682</v>
+        <v>71</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -12150,7 +12222,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -12165,7 +12237,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -12192,46 +12264,46 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>5097</v>
+        <v>4816</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>599</v>
+        <v>149</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>3533</v>
+        <v>3293</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>360</v>
+        <v>209</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>430</v>
+        <v>697</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>8630</v>
+        <v>8109</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>687</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -12243,46 +12315,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3372</v>
+        <v>3216</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>701</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>702</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>4541</v>
+        <v>3958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>601</v>
+        <v>705</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>7914</v>
+        <v>7174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>690</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>644</v>
+        <v>516</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>691</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -12294,46 +12366,46 @@
         <v>63</v>
       </c>
       <c r="D14" s="7">
-        <v>76589</v>
+        <v>74205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="H14" s="7">
         <v>125</v>
       </c>
       <c r="I14" s="7">
-        <v>95228</v>
+        <v>88679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
       </c>
       <c r="N14" s="7">
-        <v>171817</v>
+        <v>162884</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>700</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -12345,7 +12417,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>85058</v>
+        <v>82237</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>50</v>
@@ -12360,7 +12432,7 @@
         <v>135</v>
       </c>
       <c r="I15" s="7">
-        <v>104062</v>
+        <v>96653</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>50</v>
@@ -12375,7 +12447,7 @@
         <v>205</v>
       </c>
       <c r="N15" s="7">
-        <v>189120</v>
+        <v>178890</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>50</v>
@@ -12437,7 +12509,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12449,16 +12521,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1262</v>
+        <v>1271</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>585</v>
+        <v>472</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -12479,16 +12551,16 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1262</v>
+        <v>1271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>520</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -12500,46 +12572,46 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>3238</v>
+        <v>3175</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>617</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>460</v>
+        <v>184</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>5207</v>
+        <v>4835</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>423</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>8445</v>
+        <v>8010</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>545</v>
+        <v>719</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>432</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12551,46 +12623,46 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1262</v>
+        <v>1271</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>585</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>2095</v>
+        <v>1951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>3357</v>
+        <v>3222</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>59</v>
+        <v>376</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>708</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12602,46 +12674,46 @@
         <v>70</v>
       </c>
       <c r="D20" s="7">
-        <v>59297</v>
+        <v>57589</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>709</v>
+        <v>340</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="H20" s="7">
         <v>109</v>
       </c>
       <c r="I20" s="7">
-        <v>73611</v>
+        <v>68994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
       </c>
       <c r="N20" s="7">
-        <v>132907</v>
+        <v>126583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12653,7 +12725,7 @@
         <v>76</v>
       </c>
       <c r="D21" s="7">
-        <v>65059</v>
+        <v>63306</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>50</v>
@@ -12668,7 +12740,7 @@
         <v>120</v>
       </c>
       <c r="I21" s="7">
-        <v>80913</v>
+        <v>75780</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>50</v>
@@ -12683,7 +12755,7 @@
         <v>196</v>
       </c>
       <c r="N21" s="7">
-        <v>145972</v>
+        <v>139086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>50</v>
@@ -12745,7 +12817,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -12757,46 +12829,46 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>664</v>
+        <v>730</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>1469</v>
+        <v>1331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>523</v>
+        <v>697</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>1629</v>
+        <v>1493</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>305</v>
+        <v>493</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>719</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>68</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12808,46 +12880,46 @@
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>3127</v>
+        <v>3077</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>7085</v>
+        <v>6601</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>552</v>
+        <v>442</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>10213</v>
+        <v>9678</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>724</v>
+        <v>284</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>291</v>
+        <v>738</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -12859,46 +12931,46 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>4652</v>
+        <v>4321</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>652</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>1667</v>
+        <v>1522</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>728</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>6319</v>
+        <v>5843</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12910,46 +12982,46 @@
         <v>66</v>
       </c>
       <c r="D26" s="7">
-        <v>65736</v>
+        <v>62704</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>733</v>
+        <v>574</v>
       </c>
       <c r="H26" s="7">
         <v>152</v>
       </c>
       <c r="I26" s="7">
-        <v>113603</v>
+        <v>160392</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="M26" s="7">
         <v>218</v>
       </c>
       <c r="N26" s="7">
-        <v>179338</v>
+        <v>223096</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>736</v>
+        <v>642</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>230</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12961,7 +13033,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>73675</v>
+        <v>70264</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>50</v>
@@ -12976,7 +13048,7 @@
         <v>166</v>
       </c>
       <c r="I27" s="7">
-        <v>123824</v>
+        <v>169846</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
@@ -12991,7 +13063,7 @@
         <v>241</v>
       </c>
       <c r="N27" s="7">
-        <v>197499</v>
+        <v>240110</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>50</v>
@@ -13023,7 +13095,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -13038,7 +13110,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -13053,7 +13125,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -13074,28 +13146,28 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>739</v>
+        <v>388</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>19</v>
@@ -13104,7 +13176,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>284</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -13116,46 +13188,46 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
       </c>
       <c r="I30" s="7">
-        <v>2171</v>
+        <v>1852</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>2933</v>
+        <v>2545</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>117</v>
+        <v>757</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>241</v>
+        <v>758</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -13167,46 +13239,46 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>759</v>
+        <v>685</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>1747</v>
+        <v>1599</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>381</v>
+        <v>763</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>2506</v>
+        <v>2284</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>765</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -13218,46 +13290,46 @@
         <v>25</v>
       </c>
       <c r="D32" s="7">
-        <v>18783</v>
+        <v>16864</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="H32" s="7">
         <v>57</v>
       </c>
       <c r="I32" s="7">
-        <v>26875</v>
+        <v>24434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="M32" s="7">
         <v>82</v>
       </c>
       <c r="N32" s="7">
-        <v>45658</v>
+        <v>41299</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -13269,7 +13341,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="7">
-        <v>20305</v>
+        <v>18243</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -13284,7 +13356,7 @@
         <v>65</v>
       </c>
       <c r="I33" s="7">
-        <v>31224</v>
+        <v>28277</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -13299,7 +13371,7 @@
         <v>92</v>
       </c>
       <c r="N33" s="7">
-        <v>51529</v>
+        <v>46520</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -13331,7 +13403,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -13346,7 +13418,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -13382,7 +13454,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -13397,7 +13469,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -13424,46 +13496,46 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>455</v>
+        <v>353</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
       </c>
       <c r="I36" s="7">
-        <v>4221</v>
+        <v>3933</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>543</v>
+        <v>777</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
       </c>
       <c r="N36" s="7">
-        <v>4699</v>
+        <v>4385</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>186</v>
+        <v>779</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>691</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13475,16 +13547,16 @@
         <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>1043</v>
+        <v>990</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>763</v>
+        <v>448</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -13499,13 +13571,13 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>1043</v>
+        <v>990</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>54</v>
@@ -13514,7 +13586,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>385</v>
+        <v>782</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13526,46 +13598,46 @@
         <v>76</v>
       </c>
       <c r="D38" s="7">
-        <v>53174</v>
+        <v>51445</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="H38" s="7">
         <v>105</v>
       </c>
       <c r="I38" s="7">
-        <v>58330</v>
+        <v>54453</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="M38" s="7">
         <v>181</v>
       </c>
       <c r="N38" s="7">
-        <v>111503</v>
+        <v>105898</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>773</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -13577,7 +13649,7 @@
         <v>79</v>
       </c>
       <c r="D39" s="7">
-        <v>54694</v>
+        <v>52886</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>50</v>
@@ -13592,7 +13664,7 @@
         <v>112</v>
       </c>
       <c r="I39" s="7">
-        <v>62551</v>
+        <v>58386</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>50</v>
@@ -13607,7 +13679,7 @@
         <v>191</v>
       </c>
       <c r="N39" s="7">
-        <v>117245</v>
+        <v>111273</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>50</v>
@@ -13645,31 +13717,31 @@
         <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>727</v>
+        <v>791</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>146</v>
+        <v>449</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>271</v>
+        <v>462</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>275</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -13681,46 +13753,46 @@
         <v>3</v>
       </c>
       <c r="D41" s="7">
-        <v>3278</v>
+        <v>3074</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>774</v>
+        <v>598</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>213</v>
+        <v>440</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
       </c>
       <c r="I41" s="7">
-        <v>2119</v>
+        <v>1994</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>412</v>
+        <v>243</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
       </c>
       <c r="N41" s="7">
-        <v>5397</v>
+        <v>5067</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>252</v>
+        <v>758</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>353</v>
+        <v>125</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>777</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13732,46 +13804,46 @@
         <v>12</v>
       </c>
       <c r="D42" s="7">
-        <v>16155</v>
+        <v>16172</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="H42" s="7">
         <v>29</v>
       </c>
       <c r="I42" s="7">
-        <v>22268</v>
+        <v>20644</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="M42" s="7">
         <v>41</v>
       </c>
       <c r="N42" s="7">
-        <v>38423</v>
+        <v>36816</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13783,46 +13855,46 @@
         <v>7</v>
       </c>
       <c r="D43" s="7">
-        <v>5727</v>
+        <v>5472</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="H43" s="7">
         <v>14</v>
       </c>
       <c r="I43" s="7">
-        <v>11458</v>
+        <v>10550</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>123</v>
+        <v>804</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>789</v>
+        <v>737</v>
       </c>
       <c r="M43" s="7">
         <v>21</v>
       </c>
       <c r="N43" s="7">
-        <v>17185</v>
+        <v>16023</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>134</v>
+        <v>806</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>790</v>
+        <v>243</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>472</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13834,46 +13906,46 @@
         <v>120</v>
       </c>
       <c r="D44" s="7">
-        <v>119610</v>
+        <v>117828</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="H44" s="7">
         <v>266</v>
       </c>
       <c r="I44" s="7">
-        <v>174876</v>
+        <v>161995</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="M44" s="7">
         <v>386</v>
       </c>
       <c r="N44" s="7">
-        <v>294486</v>
+        <v>279823</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13885,7 +13957,7 @@
         <v>142</v>
       </c>
       <c r="D45" s="7">
-        <v>144770</v>
+        <v>142546</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>50</v>
@@ -13900,7 +13972,7 @@
         <v>313</v>
       </c>
       <c r="I45" s="7">
-        <v>211388</v>
+        <v>195802</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>50</v>
@@ -13915,7 +13987,7 @@
         <v>455</v>
       </c>
       <c r="N45" s="7">
-        <v>356158</v>
+        <v>338348</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>50</v>
@@ -13947,7 +14019,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>800</v>
+        <v>702</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -13977,7 +14049,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13989,46 +14061,46 @@
         <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>2643</v>
+        <v>2255</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>801</v>
+        <v>58</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>2925</v>
+        <v>2360</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>727</v>
+        <v>791</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>92</v>
+        <v>817</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
       </c>
       <c r="N47" s="7">
-        <v>5568</v>
+        <v>4615</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>739</v>
+        <v>818</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>475</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -14040,46 +14112,46 @@
         <v>3</v>
       </c>
       <c r="D48" s="7">
-        <v>4230</v>
+        <v>3582</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>803</v>
+        <v>543</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>504</v>
+        <v>180</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
       </c>
       <c r="I48" s="7">
-        <v>3659</v>
+        <v>3043</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>241</v>
+        <v>821</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>727</v>
+        <v>822</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>404</v>
+        <v>310</v>
       </c>
       <c r="M48" s="7">
         <v>7</v>
       </c>
       <c r="N48" s="7">
-        <v>7889</v>
+        <v>6625</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>805</v>
+        <v>733</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>457</v>
+        <v>823</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -14091,46 +14163,46 @@
         <v>6</v>
       </c>
       <c r="D49" s="7">
-        <v>6631</v>
+        <v>5692</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>378</v>
+        <v>824</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>806</v>
+        <v>373</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="H49" s="7">
         <v>12</v>
       </c>
       <c r="I49" s="7">
-        <v>8437</v>
+        <v>7137</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="M49" s="7">
         <v>18</v>
       </c>
       <c r="N49" s="7">
-        <v>15068</v>
+        <v>12830</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>809</v>
+        <v>616</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>65</v>
+        <v>628</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>251</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -14142,46 +14214,46 @@
         <v>159</v>
       </c>
       <c r="D50" s="7">
-        <v>152776</v>
+        <v>130148</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>369</v>
+        <v>829</v>
       </c>
       <c r="H50" s="7">
         <v>285</v>
       </c>
       <c r="I50" s="7">
-        <v>222789</v>
+        <v>184021</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="M50" s="7">
         <v>444</v>
       </c>
       <c r="N50" s="7">
-        <v>375565</v>
+        <v>314169</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>49</v>
+        <v>834</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -14193,7 +14265,7 @@
         <v>171</v>
       </c>
       <c r="D51" s="7">
-        <v>166280</v>
+        <v>141677</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>50</v>
@@ -14208,7 +14280,7 @@
         <v>304</v>
       </c>
       <c r="I51" s="7">
-        <v>237810</v>
+        <v>196561</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>50</v>
@@ -14223,7 +14295,7 @@
         <v>475</v>
       </c>
       <c r="N51" s="7">
-        <v>404090</v>
+        <v>338238</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>50</v>
@@ -14255,37 +14327,37 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
       </c>
       <c r="I52" s="7">
-        <v>1426</v>
+        <v>1342</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>204</v>
+        <v>365</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
       </c>
       <c r="N52" s="7">
-        <v>1426</v>
+        <v>1342</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>596</v>
+        <v>793</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -14297,46 +14369,46 @@
         <v>8</v>
       </c>
       <c r="D53" s="7">
-        <v>7343</v>
+        <v>6762</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>820</v>
+        <v>368</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>616</v>
+        <v>179</v>
       </c>
       <c r="H53" s="7">
         <v>10</v>
       </c>
       <c r="I53" s="7">
-        <v>7474</v>
+        <v>6637</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>237</v>
+        <v>442</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>821</v>
+        <v>676</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>822</v>
+        <v>202</v>
       </c>
       <c r="M53" s="7">
         <v>18</v>
       </c>
       <c r="N53" s="7">
-        <v>14817</v>
+        <v>13399</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>217</v>
+        <v>468</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -14348,46 +14420,46 @@
         <v>28</v>
       </c>
       <c r="D54" s="7">
-        <v>33745</v>
+        <v>32671</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="H54" s="7">
         <v>67</v>
       </c>
       <c r="I54" s="7">
-        <v>49277</v>
+        <v>45385</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>825</v>
+        <v>682</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>826</v>
+        <v>351</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="M54" s="7">
         <v>95</v>
       </c>
       <c r="N54" s="7">
-        <v>83022</v>
+        <v>78055</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>827</v>
+        <v>207</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>828</v>
+        <v>417</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>829</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14399,46 +14471,46 @@
         <v>31</v>
       </c>
       <c r="D55" s="7">
-        <v>27765</v>
+        <v>26735</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>830</v>
+        <v>254</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="H55" s="7">
         <v>53</v>
       </c>
       <c r="I55" s="7">
-        <v>36733</v>
+        <v>33871</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>173</v>
+        <v>817</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>243</v>
+        <v>843</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="M55" s="7">
         <v>84</v>
       </c>
       <c r="N55" s="7">
-        <v>64498</v>
+        <v>60606</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>649</v>
+        <v>779</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>385</v>
+        <v>845</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>834</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14450,46 +14522,46 @@
         <v>645</v>
       </c>
       <c r="D56" s="7">
-        <v>600470</v>
+        <v>575187</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="H56" s="7">
         <v>1219</v>
       </c>
       <c r="I56" s="7">
-        <v>827745</v>
+        <v>809327</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>614</v>
+        <v>851</v>
       </c>
       <c r="M56" s="7">
         <v>1864</v>
       </c>
       <c r="N56" s="7">
-        <v>1428214</v>
+        <v>1384514</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>835</v>
+        <v>199</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>840</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14501,7 +14573,7 @@
         <v>712</v>
       </c>
       <c r="D57" s="7">
-        <v>669323</v>
+        <v>641355</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>50</v>
@@ -14516,7 +14588,7 @@
         <v>1351</v>
       </c>
       <c r="I57" s="7">
-        <v>922655</v>
+        <v>896562</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>50</v>
@@ -14531,7 +14603,7 @@
         <v>2063</v>
       </c>
       <c r="N57" s="7">
-        <v>1591977</v>
+        <v>1537917</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>50</v>
